--- a/EXCEL/notes.xlsx
+++ b/EXCEL/notes.xlsx
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>IF(H3 = "Valid", B3*10% + C3*10% + D3*10% + E3*20% + F3*50%, 1)</f>
+        <f>IF(H3 = "Valid", SUMPRODUCT(B3:F3, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f>IF(H4 = "Valid", B4*10% + C4*10% + D4*10% + E4*20% + F4*50%, 1)</f>
+        <f>IF(H4 = "Valid", SUMPRODUCT(B4:F4, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f>IF(H5 = "Valid", B5*10% + C5*10% + D5*10% + E5*20% + F5*50%, 1)</f>
+        <f>IF(H5 = "Valid", SUMPRODUCT(B5:F5, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <f>IF(H6 = "Valid", B6*10% + C6*10% + D6*10% + E6*20% + F6*50%, 1)</f>
+        <f>IF(H6 = "Valid", SUMPRODUCT(B6:F6, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f>IF(H7 = "Valid", B7*10% + C7*10% + D7*10% + E7*20% + F7*50%, 1)</f>
+        <f>IF(H7 = "Valid", SUMPRODUCT(B7:F7, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f>IF(H8 = "Valid", B8*10% + C8*10% + D8*10% + E8*20% + F8*50%, 1)</f>
+        <f>IF(H8 = "Valid", SUMPRODUCT(B8:F8, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f>IF(H9 = "Valid", B9*10% + C9*10% + D9*10% + E9*20% + F9*50%, 1)</f>
+        <f>IF(H9 = "Valid", SUMPRODUCT(B9:F9, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f>IF(H10 = "Valid", B10*10% + C10*10% + D10*10% + E10*20% + F10*50%, 1)</f>
+        <f>IF(H10 = "Valid", SUMPRODUCT(B10:F10, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f>IF(H11 = "Valid", B11*10% + C11*10% + D11*10% + E11*20% + F11*50%, 1)</f>
+        <f>IF(H11 = "Valid", SUMPRODUCT(B11:F11, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f>IF(H12 = "Valid", B12*10% + C12*10% + D12*10% + E12*20% + F12*50%, 1)</f>
+        <f>IF(H12 = "Valid", SUMPRODUCT(B12:F12, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f>IF(H13 = "Valid", B13*10% + C13*10% + D13*10% + E13*20% + F13*50%, 1)</f>
+        <f>IF(H13 = "Valid", SUMPRODUCT(B13:F13, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f>IF(H14 = "Valid", B14*10% + C14*10% + D14*10% + E14*20% + F14*50%, 1)</f>
+        <f>IF(H14 = "Valid", SUMPRODUCT(B14:F14, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <f>IF(H15 = "Valid", B15*10% + C15*10% + D15*10% + E15*20% + F15*50%, 1)</f>
+        <f>IF(H15 = "Valid", SUMPRODUCT(B15:F15, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f>IF(H16 = "Valid", B16*10% + C16*10% + D16*10% + E16*20% + F16*50%, 1)</f>
+        <f>IF(H16 = "Valid", SUMPRODUCT(B16:F16, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f>IF(H17 = "Valid", B17*10% + C17*10% + D17*10% + E17*20% + F17*50%, 1)</f>
+        <f>IF(H17 = "Valid", SUMPRODUCT(B17:F17, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f>IF(H18 = "Valid", B18*10% + C18*10% + D18*10% + E18*20% + F18*50%, 1)</f>
+        <f>IF(H18 = "Valid", SUMPRODUCT(B18:F18, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <f>IF(H19 = "Valid", B19*10% + C19*10% + D19*10% + E19*20% + F19*50%, 1)</f>
+        <f>IF(H19 = "Valid", SUMPRODUCT(B19:F19, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f>IF(H20 = "Valid", B20*10% + C20*10% + D20*10% + E20*20% + F20*50%, 1)</f>
+        <f>IF(H20 = "Valid", SUMPRODUCT(B20:F20, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f>IF(H21 = "Valid", B21*10% + C21*10% + D21*10% + E21*20% + F21*50%, 1)</f>
+        <f>IF(H21 = "Valid", SUMPRODUCT(B21:F21, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <f>IF(H22 = "Valid", B22*10% + C22*10% + D22*10% + E22*20% + F22*50%, 1)</f>
+        <f>IF(H22 = "Valid", SUMPRODUCT(B22:F22, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <f>IF(H23 = "Valid", B23*10% + C23*10% + D23*10% + E23*20% + F23*50%, 1)</f>
+        <f>IF(H23 = "Valid", SUMPRODUCT(B23:F23, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <f>IF(H24 = "Valid", B24*10% + C24*10% + D24*10% + E24*20% + F24*50%, 1)</f>
+        <f>IF(H24 = "Valid", SUMPRODUCT(B24:F24, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <f>IF(H25 = "Valid", B25*10% + C25*10% + D25*10% + E25*20% + F25*50%, 1)</f>
+        <f>IF(H25 = "Valid", SUMPRODUCT(B25:F25, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <f>IF(H26 = "Valid", B26*10% + C26*10% + D26*10% + E26*20% + F26*50%, 1)</f>
+        <f>IF(H26 = "Valid", SUMPRODUCT(B26:F26, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f>IF(H27 = "Valid", B27*10% + C27*10% + D27*10% + E27*20% + F27*50%, 1)</f>
+        <f>IF(H27 = "Valid", SUMPRODUCT(B27:F27, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f>IF(H28 = "Valid", B28*10% + C28*10% + D28*10% + E28*20% + F28*50%, 1)</f>
+        <f>IF(H28 = "Valid", SUMPRODUCT(B28:F28, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <f>IF(H29 = "Valid", B29*10% + C29*10% + D29*10% + E29*20% + F29*50%, 1)</f>
+        <f>IF(H29 = "Valid", SUMPRODUCT(B29:F29, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f>IF(H30 = "Valid", B30*10% + C30*10% + D30*10% + E30*20% + F30*50%, 1)</f>
+        <f>IF(H30 = "Valid", SUMPRODUCT(B30:F30, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <f>IF(H31 = "Valid", B31*10% + C31*10% + D31*10% + E31*20% + F31*50%, 1)</f>
+        <f>IF(H31 = "Valid", SUMPRODUCT(B31:F31, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <f>IF(H32 = "Valid", B32*10% + C32*10% + D32*10% + E32*20% + F32*50%, 1)</f>
+        <f>IF(H32 = "Valid", SUMPRODUCT(B32:F32, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <f>IF(H33 = "Valid", B33*10% + C33*10% + D33*10% + E33*20% + F33*50%, 1)</f>
+        <f>IF(H33 = "Valid", SUMPRODUCT(B33:F33, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <f>IF(H34 = "Valid", B34*10% + C34*10% + D34*10% + E34*20% + F34*50%, 1)</f>
+        <f>IF(H34 = "Valid", SUMPRODUCT(B34:F34, B2:F2), 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <f>MID("=483920A",2,4)</f>
+        <f>MID("=483920A",4,4)</f>
         <v>0</v>
       </c>
       <c r="B3">
@@ -1658,7 +1658,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <f>MID("=592183B",2,4)</f>
+        <f>MID("=592183B",4,4)</f>
         <v>0</v>
       </c>
       <c r="B4">
@@ -1696,7 +1696,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <f>MID("=618392C",2,4)</f>
+        <f>MID("=618392C",4,4)</f>
         <v>0</v>
       </c>
       <c r="B5">
@@ -1734,7 +1734,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <f>MID("=329184D",2,4)</f>
+        <f>MID("=329184D",4,4)</f>
         <v>0</v>
       </c>
       <c r="B6">
@@ -1772,7 +1772,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <f>MID("=718392E",2,4)</f>
+        <f>MID("=718392E",4,4)</f>
         <v>0</v>
       </c>
       <c r="B7">
@@ -1810,7 +1810,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <f>MID("=128394F",2,4)</f>
+        <f>MID("=128394F",4,4)</f>
         <v>0</v>
       </c>
       <c r="B8">
@@ -1848,7 +1848,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <f>MID("=993021G",2,4)</f>
+        <f>MID("=993021G",4,4)</f>
         <v>0</v>
       </c>
       <c r="B9">
@@ -1886,7 +1886,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <f>MID("=540293H",2,4)</f>
+        <f>MID("=540293H",4,4)</f>
         <v>0</v>
       </c>
       <c r="B10">
@@ -1924,7 +1924,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <f>MID("=291837I",2,4)</f>
+        <f>MID("=291837I",4,4)</f>
         <v>0</v>
       </c>
       <c r="B11">
@@ -1962,7 +1962,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <f>MID("=839201J",2,4)</f>
+        <f>MID("=839201J",4,4)</f>
         <v>0</v>
       </c>
       <c r="B12">
@@ -2000,7 +2000,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <f>MID("=192038K",2,4)</f>
+        <f>MID("=192038K",4,4)</f>
         <v>0</v>
       </c>
       <c r="B13">
@@ -2038,7 +2038,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <f>MID("=302918L",2,4)</f>
+        <f>MID("=302918L",4,4)</f>
         <v>0</v>
       </c>
       <c r="B14">
@@ -2076,7 +2076,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <f>MID("=567123M",2,4)</f>
+        <f>MID("=567123M",4,4)</f>
         <v>0</v>
       </c>
       <c r="B15">
@@ -2114,7 +2114,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <f>MID("=214365N",2,4)</f>
+        <f>MID("=214365N",4,4)</f>
         <v>0</v>
       </c>
       <c r="B16">
@@ -2152,7 +2152,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <f>MID("=975310O",2,4)</f>
+        <f>MID("=975310O",4,4)</f>
         <v>0</v>
       </c>
       <c r="B17">
@@ -2190,7 +2190,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <f>MID("=456098P",2,4)</f>
+        <f>MID("=456098P",4,4)</f>
         <v>0</v>
       </c>
       <c r="B18">
@@ -2228,7 +2228,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <f>MID("=098765Q",2,4)</f>
+        <f>MID("=098765Q",4,4)</f>
         <v>0</v>
       </c>
       <c r="B19">
@@ -2266,7 +2266,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <f>MID("=123789R",2,4)</f>
+        <f>MID("=123789R",4,4)</f>
         <v>0</v>
       </c>
       <c r="B20">
@@ -2304,7 +2304,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <f>MID("=654321S",2,4)</f>
+        <f>MID("=654321S",4,4)</f>
         <v>0</v>
       </c>
       <c r="B21">
@@ -2342,7 +2342,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <f>MID("=777777T",2,4)</f>
+        <f>MID("=777777T",4,4)</f>
         <v>0</v>
       </c>
       <c r="B22">
@@ -2380,7 +2380,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <f>MID("=000001U",2,4)</f>
+        <f>MID("=000001U",4,4)</f>
         <v>0</v>
       </c>
       <c r="B23">
@@ -2418,7 +2418,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <f>MID("=333333V",2,4)</f>
+        <f>MID("=333333V",4,4)</f>
         <v>0</v>
       </c>
       <c r="B24">
@@ -2456,7 +2456,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <f>MID("=888888W",2,4)</f>
+        <f>MID("=888888W",4,4)</f>
         <v>0</v>
       </c>
       <c r="B25">
@@ -2494,7 +2494,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <f>MID("=999999X",2,4)</f>
+        <f>MID("=999999X",4,4)</f>
         <v>0</v>
       </c>
       <c r="B26">
@@ -2532,7 +2532,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <f>MID("=222222Y",2,4)</f>
+        <f>MID("=222222Y",4,4)</f>
         <v>0</v>
       </c>
       <c r="B27">
@@ -2570,7 +2570,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <f>MID("=111111Z",2,4)</f>
+        <f>MID("=111111Z",4,4)</f>
         <v>0</v>
       </c>
       <c r="B28">
@@ -2608,7 +2608,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <f>MID("=666666R",2,4)</f>
+        <f>MID("=666666R",4,4)</f>
         <v>0</v>
       </c>
       <c r="B29">
@@ -2646,7 +2646,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <f>MID("=444444A",2,4)</f>
+        <f>MID("=444444A",4,4)</f>
         <v>0</v>
       </c>
       <c r="B30">
@@ -2684,7 +2684,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <f>MID("=555555B",2,4)</f>
+        <f>MID("=555555B",4,4)</f>
         <v>0</v>
       </c>
       <c r="B31">
@@ -2722,7 +2722,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <f>MID("=123123C",2,4)</f>
+        <f>MID("=123123C",4,4)</f>
         <v>0</v>
       </c>
       <c r="B32">
@@ -2760,7 +2760,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <f>MID("=321321D",2,4)</f>
+        <f>MID("=321321D",4,4)</f>
         <v>0</v>
       </c>
       <c r="B33">
@@ -2798,7 +2798,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <f>MID("=987654E",2,4)</f>
+        <f>MID("=987654E",4,4)</f>
         <v>0</v>
       </c>
       <c r="B34">

--- a/EXCEL/notes.xlsx
+++ b/EXCEL/notes.xlsx
@@ -191,7 +191,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -1553,10 +1563,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I34">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2841,10 +2851,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I34">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EXCEL/notes.xlsx
+++ b/EXCEL/notes.xlsx
@@ -1630,7 +1630,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <f>MID("=483920A",4,4)</f>
+        <f>MID("=483920A",3,4)</f>
         <v>0</v>
       </c>
       <c r="B3">
@@ -1668,7 +1668,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <f>MID("=592183B",4,4)</f>
+        <f>MID("=592183B",3,4)</f>
         <v>0</v>
       </c>
       <c r="B4">
@@ -1706,7 +1706,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <f>MID("=618392C",4,4)</f>
+        <f>MID("=618392C",3,4)</f>
         <v>0</v>
       </c>
       <c r="B5">
@@ -1744,7 +1744,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <f>MID("=329184D",4,4)</f>
+        <f>MID("=329184D",3,4)</f>
         <v>0</v>
       </c>
       <c r="B6">
@@ -1782,7 +1782,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <f>MID("=718392E",4,4)</f>
+        <f>MID("=718392E",3,4)</f>
         <v>0</v>
       </c>
       <c r="B7">
@@ -1820,7 +1820,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <f>MID("=128394F",4,4)</f>
+        <f>MID("=128394F",3,4)</f>
         <v>0</v>
       </c>
       <c r="B8">
@@ -1858,7 +1858,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <f>MID("=993021G",4,4)</f>
+        <f>MID("=993021G",3,4)</f>
         <v>0</v>
       </c>
       <c r="B9">
@@ -1896,7 +1896,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <f>MID("=540293H",4,4)</f>
+        <f>MID("=540293H",3,4)</f>
         <v>0</v>
       </c>
       <c r="B10">
@@ -1934,7 +1934,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <f>MID("=291837I",4,4)</f>
+        <f>MID("=291837I",3,4)</f>
         <v>0</v>
       </c>
       <c r="B11">
@@ -1972,7 +1972,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <f>MID("=839201J",4,4)</f>
+        <f>MID("=839201J",3,4)</f>
         <v>0</v>
       </c>
       <c r="B12">
@@ -2010,7 +2010,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <f>MID("=192038K",4,4)</f>
+        <f>MID("=192038K",3,4)</f>
         <v>0</v>
       </c>
       <c r="B13">
@@ -2048,7 +2048,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <f>MID("=302918L",4,4)</f>
+        <f>MID("=302918L",3,4)</f>
         <v>0</v>
       </c>
       <c r="B14">
@@ -2086,7 +2086,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <f>MID("=567123M",4,4)</f>
+        <f>MID("=567123M",3,4)</f>
         <v>0</v>
       </c>
       <c r="B15">
@@ -2124,7 +2124,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <f>MID("=214365N",4,4)</f>
+        <f>MID("=214365N",3,4)</f>
         <v>0</v>
       </c>
       <c r="B16">
@@ -2162,7 +2162,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <f>MID("=975310O",4,4)</f>
+        <f>MID("=975310O",3,4)</f>
         <v>0</v>
       </c>
       <c r="B17">
@@ -2200,7 +2200,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <f>MID("=456098P",4,4)</f>
+        <f>MID("=456098P",3,4)</f>
         <v>0</v>
       </c>
       <c r="B18">
@@ -2238,7 +2238,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <f>MID("=098765Q",4,4)</f>
+        <f>MID("=098765Q",3,4)</f>
         <v>0</v>
       </c>
       <c r="B19">
@@ -2276,7 +2276,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <f>MID("=123789R",4,4)</f>
+        <f>MID("=123789R",3,4)</f>
         <v>0</v>
       </c>
       <c r="B20">
@@ -2314,7 +2314,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <f>MID("=654321S",4,4)</f>
+        <f>MID("=654321S",3,4)</f>
         <v>0</v>
       </c>
       <c r="B21">
@@ -2352,7 +2352,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <f>MID("=777777T",4,4)</f>
+        <f>MID("=777777T",3,4)</f>
         <v>0</v>
       </c>
       <c r="B22">
@@ -2390,7 +2390,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <f>MID("=000001U",4,4)</f>
+        <f>MID("=000001U",3,4)</f>
         <v>0</v>
       </c>
       <c r="B23">
@@ -2428,7 +2428,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <f>MID("=333333V",4,4)</f>
+        <f>MID("=333333V",3,4)</f>
         <v>0</v>
       </c>
       <c r="B24">
@@ -2466,7 +2466,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <f>MID("=888888W",4,4)</f>
+        <f>MID("=888888W",3,4)</f>
         <v>0</v>
       </c>
       <c r="B25">
@@ -2504,7 +2504,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <f>MID("=999999X",4,4)</f>
+        <f>MID("=999999X",3,4)</f>
         <v>0</v>
       </c>
       <c r="B26">
@@ -2542,7 +2542,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <f>MID("=222222Y",4,4)</f>
+        <f>MID("=222222Y",3,4)</f>
         <v>0</v>
       </c>
       <c r="B27">
@@ -2580,7 +2580,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <f>MID("=111111Z",4,4)</f>
+        <f>MID("=111111Z",3,4)</f>
         <v>0</v>
       </c>
       <c r="B28">
@@ -2618,7 +2618,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <f>MID("=666666R",4,4)</f>
+        <f>MID("=666666R",3,4)</f>
         <v>0</v>
       </c>
       <c r="B29">
@@ -2656,7 +2656,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <f>MID("=444444A",4,4)</f>
+        <f>MID("=444444A",3,4)</f>
         <v>0</v>
       </c>
       <c r="B30">
@@ -2694,7 +2694,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <f>MID("=555555B",4,4)</f>
+        <f>MID("=555555B",3,4)</f>
         <v>0</v>
       </c>
       <c r="B31">
@@ -2732,7 +2732,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <f>MID("=123123C",4,4)</f>
+        <f>MID("=123123C",3,4)</f>
         <v>0</v>
       </c>
       <c r="B32">
@@ -2770,7 +2770,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <f>MID("=321321D",4,4)</f>
+        <f>MID("=321321D",3,4)</f>
         <v>0</v>
       </c>
       <c r="B33">
@@ -2808,7 +2808,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <f>MID("=987654E",4,4)</f>
+        <f>MID("=987654E",3,4)</f>
         <v>0</v>
       </c>
       <c r="B34">
